--- a/biology/Botanique/Pinus_monophylla/Pinus_monophylla.xlsx
+++ b/biology/Botanique/Pinus_monophylla/Pinus_monophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus monophylla, le pin à une feuille (synonyme : P. cembroides var monophylla), est un arbre appartenant à la famille des Pinacées et au genre Pinus. C'est la seule espèce de pins à n'avoir qu'une feuille par faisceau.
 Il est originaire du sud-ouest des États-Unis et du nord du Mexique. C'est l'arbre officiel de l'État du Nevada.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre à feuilles persistantes qui peut atteindre une hauteur de 15 m, et 50 cm de diamètre. Il vit en altitude sur les pentes et les crêtes. Il a un port conique large. L'arbre est très branchu, et les rameaux de couleur orangée virant au gris avec l'âge sont vigoureux et ascendants. Les branches persistent très près de la base du tronc
 Son écorce est formée d'écailles brun-gris, et de sillons de profondeurs variables. Ses feuilles sont en forme d'aiguilles incurvées, courtes (jusqu'à 5 cm) et rigides. Elles sont de couleurs gris-vert à bleu-gris, une (parfois deux) par faisceau, et orientées vers le ciel.
@@ -545,7 +559,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus monophylla Torr. &amp; Frém. subsp. monophylla Répartition
 Pinus monophylla Torr. &amp; Frém. subsp. californiarum (Bailey) Silba Répartition
